--- a/model/results/mix3_ggpos_h2pos/b_tech.xlsx
+++ b/model/results/mix3_ggpos_h2pos/b_tech.xlsx
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -4208,25 +4208,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4591836734690797</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4591836734533803</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4591836734688075</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4591836734312443</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734693877</v>
+        <v>0.4591836734655997</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7460,25 +7460,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -7536,25 +7536,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4591836734690797</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4591836734688075</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9241,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4591836734312444</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734693877</v>
+        <v>0.4591836734655997</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -9958,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -10110,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -10338,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -10560,7 +10560,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -10788,25 +10788,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -10864,25 +10864,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -11353,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4591836734690797</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -12341,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4591836734688075</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.754437378661367e-10</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -12873,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734693877</v>
+        <v>0.4591836734655997</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -13058,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -13134,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -13210,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -13514,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -13888,7 +13888,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -14116,25 +14116,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -14192,25 +14192,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -14681,7 +14681,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -15669,7 +15669,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4591836734688075</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -15812,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.754437378661367e-10</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -15821,7 +15821,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734693877</v>
+        <v>0.4591836734655997</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -16462,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -16614,7 +16614,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -16690,7 +16690,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -16766,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -16842,7 +16842,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -16994,7 +16994,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -17070,7 +17070,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -17216,7 +17216,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307727</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -17444,25 +17444,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -17520,25 +17520,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -18009,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.754437378661367e-10</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -19149,7 +19149,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -19301,7 +19301,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4591836734693877</v>
+        <v>0.4591836734676093</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -19529,7 +19529,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734693877</v>
+        <v>0.4591836734655997</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -19638,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -19790,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -19866,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -20018,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -20094,7 +20094,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -20246,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -20322,7 +20322,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -20544,7 +20544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307727</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.769230769230779</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.769230769230779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -20772,7 +20772,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.1268656716417911</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -20784,16 +20784,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.1649253731343283</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -20848,7 +20848,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1268656716417919</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -20860,16 +20860,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1649253731343283</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -21337,7 +21337,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -22468,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.754437378661367e-10</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -22477,7 +22477,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -22857,7 +22857,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734693877</v>
+        <v>0.4591836734655997</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -22966,7 +22966,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -23118,7 +23118,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -23194,7 +23194,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -23346,7 +23346,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -23650,7 +23650,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -23726,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -23872,7 +23872,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -23948,7 +23948,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.769230769230779</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -24024,7 +24024,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.769230769230779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -24100,7 +24100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.1268656716417911</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -24112,16 +24112,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.1649253731343283</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -24176,7 +24176,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1268656716417911</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -24188,16 +24188,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1649253731343283</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -24656,7 +24656,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.779126139139254e-12</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -24665,7 +24665,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -24732,7 +24732,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.710262021545504e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -24808,7 +24808,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.470372174427077e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -24817,7 +24817,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4591836734688332</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -24884,7 +24884,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.129591445012785e-13</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -25127,7 +25127,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3.968026875142643e-12</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -25355,7 +25355,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.744060104025053e-12</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -25507,7 +25507,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.668768985644773e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -25796,7 +25796,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.754437378661367e-10</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -25805,7 +25805,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -26100,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.021528192127106e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -26176,7 +26176,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.705501530057456e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -26294,7 +26294,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -26370,7 +26370,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -26446,7 +26446,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -26598,7 +26598,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -26674,7 +26674,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -26750,7 +26750,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -26826,7 +26826,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -27054,7 +27054,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -27200,7 +27200,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307695</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27276,7 +27276,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.769230769230779</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27352,7 +27352,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.769230769230779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27428,7 +27428,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1268656716417911</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27440,16 +27440,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.1649253731343283</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27504,7 +27504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1268656716417911</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27516,16 +27516,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1649253731343283</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27984,7 +27984,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.779126139139254e-12</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -27993,7 +27993,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -28060,7 +28060,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.710262021545504e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28069,7 +28069,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4591836734690037</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28136,7 +28136,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.470372174427077e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28145,7 +28145,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4591836734688332</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28212,7 +28212,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.129591445012785e-13</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28221,7 +28221,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4591836734692501</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -28449,13 +28449,13 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4591836734689828</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3.968026875142643e-12</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -28677,13 +28677,13 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4591836734692097</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.744060104025053e-12</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -28829,13 +28829,13 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4591836734688092</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.668768985644773e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29124,7 +29124,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.754437378661367e-10</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29133,7 +29133,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -29428,7 +29428,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.021528192127106e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29437,7 +29437,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4591836734691583</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29504,7 +29504,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.705501530057456e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29513,7 +29513,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734685559</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29622,7 +29622,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -29698,7 +29698,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -29774,7 +29774,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -29850,7 +29850,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -29926,7 +29926,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -30002,7 +30002,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -30078,7 +30078,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -30154,7 +30154,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -30230,7 +30230,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -30306,7 +30306,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -30382,7 +30382,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -30528,7 +30528,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307792</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -30680,7 +30680,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307792</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.126865671641791</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -30768,16 +30768,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.1649253731343283</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -30832,7 +30832,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.126865671641791</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -30844,16 +30844,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1649253731343283</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -31312,7 +31312,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.779126139139254e-12</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31321,7 +31321,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31388,7 +31388,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.710262021545504e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -31397,7 +31397,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4591836734690037</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -31464,7 +31464,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.470372174427077e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -31473,7 +31473,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4591836734688332</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -31540,7 +31540,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.129591445012785e-13</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -31549,7 +31549,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4591836734692501</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -31777,13 +31777,13 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4591836734689828</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3.968026875142643e-12</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32005,13 +32005,13 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4591836734692097</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.744060104025053e-12</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32157,13 +32157,13 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4591836734688092</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.668768985644773e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -32452,7 +32452,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.754437378661367e-10</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -32756,7 +32756,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.021528192127106e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -32765,7 +32765,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4591836734691583</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -32832,7 +32832,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.705501530057456e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -32841,7 +32841,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734685559</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -32950,7 +32950,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -33026,7 +33026,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -33102,7 +33102,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -33178,7 +33178,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -33254,7 +33254,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -33406,7 +33406,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -33482,7 +33482,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -33558,7 +33558,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -33634,7 +33634,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -33710,7 +33710,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -33856,7 +33856,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -34084,7 +34084,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.1268656716417909</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -34096,16 +34096,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.1649253731343282</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -34160,7 +34160,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.126865671641791</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -34172,16 +34172,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1649253731343285</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -34640,7 +34640,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.779126139139254e-12</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -34649,7 +34649,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.710262021545504e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -34725,7 +34725,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4591836734690037</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.470372174427077e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4591836734688332</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.129591445012785e-13</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4591836734692501</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35105,13 +35105,13 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4591836734689828</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3.968026875142643e-12</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4591836734692097</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.744060104025053e-12</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4591836734688092</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.668768985644773e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -35780,7 +35780,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.754437378661367e-10</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -35789,7 +35789,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36084,7 +36084,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.021528192127106e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36093,7 +36093,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4591836734691583</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -36160,7 +36160,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.705501530057456e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -36169,7 +36169,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734685559</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -36430,7 +36430,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -36506,7 +36506,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -36582,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -36658,7 +36658,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -36734,7 +36734,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -36810,7 +36810,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -36886,7 +36886,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -36962,7 +36962,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -37038,7 +37038,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -37184,7 +37184,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -37260,7 +37260,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -40512,7 +40512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -40533,7 +40533,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -40588,7 +40588,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -40664,7 +40664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -40740,7 +40740,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.1268656716417911</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -40752,16 +40752,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.1649253731343284</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -40816,7 +40816,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.126865671641791</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -40828,16 +40828,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1649253731343285</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -41220,7 +41220,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.9262884491254e-12</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -41296,7 +41296,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.779126139139254e-12</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -41305,7 +41305,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -41372,7 +41372,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.710262021545504e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -41381,7 +41381,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4591836734690037</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -41448,7 +41448,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.470372174427077e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -41457,7 +41457,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4591836734688332</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -41524,7 +41524,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.129591445012785e-13</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -41533,7 +41533,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4591836734692501</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -41761,13 +41761,13 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4591836734689828</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3.968026875142643e-12</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -41989,13 +41989,13 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4591836734692097</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.744060104025053e-12</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -42141,13 +42141,13 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4591836734688092</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.668768985644773e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -42208,7 +42208,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8.688272828328675e-13</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -42360,7 +42360,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.54100343851803e-12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -42436,7 +42436,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.754437378661367e-10</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -42445,7 +42445,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -42740,7 +42740,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.021528192127106e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -42749,7 +42749,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4591836734691583</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -42816,7 +42816,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.705501530057456e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -42825,7 +42825,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734685559</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -42934,7 +42934,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -43010,7 +43010,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -43086,7 +43086,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -43162,7 +43162,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -43238,7 +43238,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -43314,7 +43314,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -43390,7 +43390,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -43466,7 +43466,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -43542,7 +43542,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -43618,7 +43618,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -43694,7 +43694,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -44068,7 +44068,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -44144,7 +44144,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -47168,7 +47168,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -47244,7 +47244,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -47320,7 +47320,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -47396,7 +47396,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -47472,7 +47472,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -49590,7 +49590,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -49666,7 +49666,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -49742,7 +49742,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -49818,7 +49818,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -49894,7 +49894,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -49970,7 +49970,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -50046,7 +50046,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -50122,7 +50122,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -50198,7 +50198,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -50274,7 +50274,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -50350,7 +50350,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -50496,7 +50496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -50517,7 +50517,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -50572,7 +50572,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -50593,7 +50593,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5756166647227592</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -50669,7 +50669,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.1877839651029872</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -50724,13 +50724,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -50745,7 +50745,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -50800,13 +50800,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -50821,7 +50821,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -52918,7 +52918,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -52994,7 +52994,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -53070,7 +53070,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -53146,7 +53146,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -53222,7 +53222,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -53298,7 +53298,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -53374,7 +53374,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -53450,7 +53450,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -53526,7 +53526,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -53602,7 +53602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -53678,7 +53678,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -53824,7 +53824,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -53845,7 +53845,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -53900,7 +53900,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -53912,13 +53912,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.9999994123582788</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.9999994121611626</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -53988,16 +53988,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.5337301359957114</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -54052,13 +54052,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -54073,7 +54073,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -54128,13 +54128,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -56246,7 +56246,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -56322,7 +56322,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -56398,7 +56398,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -56474,7 +56474,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -56550,7 +56550,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -56626,7 +56626,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -56702,7 +56702,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -56778,7 +56778,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -56854,7 +56854,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -56930,7 +56930,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -57006,7 +57006,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -57152,7 +57152,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -57164,16 +57164,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -57228,7 +57228,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -57240,13 +57240,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -57316,16 +57316,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.5337301359957114</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -57380,28 +57380,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -57456,25 +57456,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -59650,7 +59650,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -59726,7 +59726,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -59802,7 +59802,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -59878,7 +59878,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -59954,7 +59954,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -60030,7 +60030,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -60106,7 +60106,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -60182,7 +60182,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -60258,7 +60258,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -60334,7 +60334,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -60480,7 +60480,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -60498,10 +60498,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -60556,7 +60556,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -60568,13 +60568,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -60644,13 +60644,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -60708,25 +60708,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -60784,25 +60784,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -61273,7 +61273,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734720554</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -61805,7 +61805,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4591836734690798</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -61881,7 +61881,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4591836734533804</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -62261,7 +62261,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4591836734688075</v>
+        <v>0.4591836734699294</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -62413,7 +62413,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -62489,7 +62489,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4591836734312443</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -62793,7 +62793,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734693877</v>
+        <v>0.4591836734655997</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -62902,7 +62902,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -62978,7 +62978,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -63054,7 +63054,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -63130,7 +63130,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -63206,7 +63206,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -63282,7 +63282,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -63358,7 +63358,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -63434,7 +63434,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -63510,7 +63510,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -63586,7 +63586,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -63662,7 +63662,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -63808,7 +63808,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -63826,10 +63826,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -63884,7 +63884,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -64036,25 +64036,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -64112,25 +64112,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -64601,7 +64601,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4591836734687638</v>
+        <v>0.4591836734720554</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -65133,7 +65133,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4591836734690797</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -65209,7 +65209,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4591836734533803</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -65589,7 +65589,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4591836734688075</v>
+        <v>0.4591836734699294</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -65741,7 +65741,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4591836734300023</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -65817,7 +65817,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4591836734312443</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -66121,7 +66121,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4591836734693877</v>
+        <v>0.4591836734655997</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -66230,7 +66230,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -66306,7 +66306,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -66382,7 +66382,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -66458,7 +66458,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -66534,7 +66534,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -66610,7 +66610,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -66686,7 +66686,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -66762,7 +66762,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -66838,7 +66838,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -66914,7 +66914,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -66990,7 +66990,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
